--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.437774666666667</v>
+        <v>1.497411</v>
       </c>
       <c r="H2">
-        <v>4.313324</v>
+        <v>4.492233</v>
       </c>
       <c r="I2">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="J2">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N2">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O2">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P2">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q2">
-        <v>0.2993240774964445</v>
+        <v>0.27124601991</v>
       </c>
       <c r="R2">
-        <v>2.693916697468</v>
+        <v>2.44121417919</v>
       </c>
       <c r="S2">
-        <v>0.003772846106922096</v>
+        <v>0.003438547878679646</v>
       </c>
       <c r="T2">
-        <v>0.003772846106922095</v>
+        <v>0.003438547878679646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.437774666666667</v>
+        <v>1.497411</v>
       </c>
       <c r="H3">
-        <v>4.313324</v>
+        <v>4.492233</v>
       </c>
       <c r="I3">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="J3">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>40.275994</v>
       </c>
       <c r="O3">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P3">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q3">
-        <v>19.30260128267289</v>
+        <v>20.103238817178</v>
       </c>
       <c r="R3">
-        <v>173.723411544056</v>
+        <v>180.929149354602</v>
       </c>
       <c r="S3">
-        <v>0.2433006549687502</v>
+        <v>0.2548459483841785</v>
       </c>
       <c r="T3">
-        <v>0.2433006549687501</v>
+        <v>0.2548459483841785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.437774666666667</v>
+        <v>1.497411</v>
       </c>
       <c r="H4">
-        <v>4.313324</v>
+        <v>4.492233</v>
       </c>
       <c r="I4">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="J4">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N4">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P4">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q4">
-        <v>3.858128374599111</v>
+        <v>3.981793541771999</v>
       </c>
       <c r="R4">
-        <v>34.723155371392</v>
+        <v>35.836141875948</v>
       </c>
       <c r="S4">
-        <v>0.04862998239186032</v>
+        <v>0.05047664013998554</v>
       </c>
       <c r="T4">
-        <v>0.04862998239186032</v>
+        <v>0.05047664013998553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.437774666666667</v>
+        <v>1.497411</v>
       </c>
       <c r="H5">
-        <v>4.313324</v>
+        <v>4.492233</v>
       </c>
       <c r="I5">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="J5">
-        <v>0.2965885866872326</v>
+        <v>0.3090503153498128</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N5">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P5">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q5">
-        <v>0.07022091472</v>
+        <v>0.022811559174</v>
       </c>
       <c r="R5">
-        <v>0.63198823248</v>
+        <v>0.205304032566</v>
       </c>
       <c r="S5">
-        <v>0.0008851032197000842</v>
+        <v>0.0002891789469690984</v>
       </c>
       <c r="T5">
-        <v>0.0008851032197000841</v>
+        <v>0.0002891789469690984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.768721999999999</v>
       </c>
       <c r="I6">
-        <v>0.3279022207198702</v>
+        <v>0.328071815935547</v>
       </c>
       <c r="J6">
-        <v>0.3279022207198702</v>
+        <v>0.3280718159355469</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N6">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O6">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P6">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q6">
-        <v>0.330926522906</v>
+        <v>0.28794073294</v>
       </c>
       <c r="R6">
-        <v>2.978338706154</v>
+        <v>2.59146659646</v>
       </c>
       <c r="S6">
-        <v>0.004171180795297026</v>
+        <v>0.003650184422115451</v>
       </c>
       <c r="T6">
-        <v>0.004171180795297025</v>
+        <v>0.00365018442211545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.768721999999999</v>
       </c>
       <c r="I7">
-        <v>0.3279022207198702</v>
+        <v>0.328071815935547</v>
       </c>
       <c r="J7">
-        <v>0.3279022207198702</v>
+        <v>0.3280718159355469</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>40.275994</v>
       </c>
       <c r="O7">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P7">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q7">
         <v>21.340557628852</v>
@@ -883,10 +883,10 @@
         <v>192.065018659668</v>
       </c>
       <c r="S7">
-        <v>0.268988183119072</v>
+        <v>0.2705312660030093</v>
       </c>
       <c r="T7">
-        <v>0.268988183119072</v>
+        <v>0.2705312660030093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.768721999999999</v>
       </c>
       <c r="I8">
-        <v>0.3279022207198702</v>
+        <v>0.328071815935547</v>
       </c>
       <c r="J8">
-        <v>0.3279022207198702</v>
+        <v>0.3280718159355469</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N8">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O8">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P8">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q8">
-        <v>4.265467110463999</v>
+        <v>4.226865895447999</v>
       </c>
       <c r="R8">
-        <v>38.38920399417599</v>
+        <v>38.041793059032</v>
       </c>
       <c r="S8">
-        <v>0.05376430495174416</v>
+        <v>0.05358338811046359</v>
       </c>
       <c r="T8">
-        <v>0.05376430495174415</v>
+        <v>0.05358338811046356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.768721999999999</v>
       </c>
       <c r="I9">
-        <v>0.3279022207198702</v>
+        <v>0.328071815935547</v>
       </c>
       <c r="J9">
-        <v>0.3279022207198702</v>
+        <v>0.3280718159355469</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N9">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O9">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P9">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q9">
-        <v>0.07763479415999999</v>
+        <v>0.024215570316</v>
       </c>
       <c r="R9">
-        <v>0.69871314744</v>
+        <v>0.217940132844</v>
       </c>
       <c r="S9">
-        <v>0.0009785518537570154</v>
+        <v>0.0003069773999586338</v>
       </c>
       <c r="T9">
-        <v>0.0009785518537570152</v>
+        <v>0.0003069773999586337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7159183333333333</v>
+        <v>1.151</v>
       </c>
       <c r="H10">
-        <v>2.147755</v>
+        <v>3.453</v>
       </c>
       <c r="I10">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="J10">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N10">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O10">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P10">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q10">
-        <v>0.1490439355038889</v>
+        <v>0.2084959766666667</v>
       </c>
       <c r="R10">
-        <v>1.341395419535</v>
+        <v>1.87646379</v>
       </c>
       <c r="S10">
-        <v>0.001878632138548476</v>
+        <v>0.002643074351904903</v>
       </c>
       <c r="T10">
-        <v>0.001878632138548476</v>
+        <v>0.002643074351904903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7159183333333333</v>
+        <v>1.151</v>
       </c>
       <c r="H11">
-        <v>2.147755</v>
+        <v>3.453</v>
       </c>
       <c r="I11">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="J11">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>40.275994</v>
       </c>
       <c r="O11">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P11">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q11">
-        <v>9.611440832607778</v>
+        <v>15.45255636466667</v>
       </c>
       <c r="R11">
-        <v>86.50296749347001</v>
+        <v>139.073007282</v>
       </c>
       <c r="S11">
-        <v>0.1211479124249437</v>
+        <v>0.195889897022387</v>
       </c>
       <c r="T11">
-        <v>0.1211479124249437</v>
+        <v>0.1958898970223869</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7159183333333333</v>
+        <v>1.151</v>
       </c>
       <c r="H12">
-        <v>2.147755</v>
+        <v>3.453</v>
       </c>
       <c r="I12">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="J12">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N12">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O12">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P12">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q12">
-        <v>1.921097164782222</v>
+        <v>3.060645585333333</v>
       </c>
       <c r="R12">
-        <v>17.28987448304</v>
+        <v>27.545810268</v>
       </c>
       <c r="S12">
-        <v>0.02421457044080852</v>
+        <v>0.0387993762575027</v>
       </c>
       <c r="T12">
-        <v>0.02421457044080852</v>
+        <v>0.03879937625750268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7159183333333333</v>
+        <v>1.151</v>
       </c>
       <c r="H13">
-        <v>2.147755</v>
+        <v>3.453</v>
       </c>
       <c r="I13">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="J13">
-        <v>0.1476818388788872</v>
+        <v>0.2375546279329019</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N13">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O13">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P13">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q13">
-        <v>0.0349654514</v>
+        <v>0.017534334</v>
       </c>
       <c r="R13">
-        <v>0.3146890626</v>
+        <v>0.157809006</v>
       </c>
       <c r="S13">
-        <v>0.0004407238745865032</v>
+        <v>0.0002222803011073328</v>
       </c>
       <c r="T13">
-        <v>0.0004407238745865032</v>
+        <v>0.0002222803011073328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.104440333333333</v>
+        <v>0.6072163333333332</v>
       </c>
       <c r="H14">
-        <v>3.313321</v>
+        <v>1.821649</v>
       </c>
       <c r="I14">
-        <v>0.22782735371401</v>
+        <v>0.1253232407817384</v>
       </c>
       <c r="J14">
-        <v>0.22782735371401</v>
+        <v>0.1253232407817384</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2081856666666667</v>
+        <v>0.1811433333333334</v>
       </c>
       <c r="N14">
-        <v>0.624557</v>
+        <v>0.5434300000000001</v>
       </c>
       <c r="O14">
-        <v>0.0127208067884984</v>
+        <v>0.0111261749556462</v>
       </c>
       <c r="P14">
-        <v>0.0127208067884984</v>
+        <v>0.01112617495564619</v>
       </c>
       <c r="Q14">
-        <v>0.2299286470885556</v>
+        <v>0.1099931906744444</v>
       </c>
       <c r="R14">
-        <v>2.069357823797</v>
+        <v>0.9899387160700001</v>
       </c>
       <c r="S14">
-        <v>0.002898147747730805</v>
+        <v>0.001394368302946196</v>
       </c>
       <c r="T14">
-        <v>0.002898147747730805</v>
+        <v>0.001394368302946196</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.104440333333333</v>
+        <v>0.6072163333333332</v>
       </c>
       <c r="H15">
-        <v>3.313321</v>
+        <v>1.821649</v>
       </c>
       <c r="I15">
-        <v>0.22782735371401</v>
+        <v>0.1253232407817384</v>
       </c>
       <c r="J15">
-        <v>0.22782735371401</v>
+        <v>0.1253232407817384</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>40.275994</v>
       </c>
       <c r="O15">
-        <v>0.8203304708596989</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="P15">
-        <v>0.8203304708596987</v>
+        <v>0.8246098959508241</v>
       </c>
       <c r="Q15">
-        <v>14.82747741289711</v>
+        <v>8.152080466011776</v>
       </c>
       <c r="R15">
-        <v>133.447296716074</v>
+        <v>73.36872419410599</v>
       </c>
       <c r="S15">
-        <v>0.186893720346933</v>
+        <v>0.1033427845412494</v>
       </c>
       <c r="T15">
-        <v>0.1868937203469329</v>
+        <v>0.1033427845412494</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.104440333333333</v>
+        <v>0.6072163333333332</v>
       </c>
       <c r="H16">
-        <v>3.313321</v>
+        <v>1.821649</v>
       </c>
       <c r="I16">
-        <v>0.22782735371401</v>
+        <v>0.1253232407817384</v>
       </c>
       <c r="J16">
-        <v>0.22782735371401</v>
+        <v>0.1253232407817384</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.683402666666666</v>
+        <v>2.659118666666667</v>
       </c>
       <c r="N16">
-        <v>8.050208</v>
+        <v>7.977356</v>
       </c>
       <c r="O16">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="P16">
-        <v>0.1639644429174985</v>
+        <v>0.1633282272592126</v>
       </c>
       <c r="Q16">
-        <v>2.963658135640889</v>
+        <v>1.614660286671555</v>
       </c>
       <c r="R16">
-        <v>26.672923220768</v>
+        <v>14.531942580044</v>
       </c>
       <c r="S16">
-        <v>0.03735558513308554</v>
+        <v>0.02046882275126079</v>
       </c>
       <c r="T16">
-        <v>0.03735558513308553</v>
+        <v>0.02046882275126079</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.104440333333333</v>
+        <v>0.6072163333333332</v>
       </c>
       <c r="H17">
-        <v>3.313321</v>
+        <v>1.821649</v>
       </c>
       <c r="I17">
-        <v>0.22782735371401</v>
+        <v>0.1253232407817384</v>
       </c>
       <c r="J17">
-        <v>0.22782735371401</v>
+        <v>0.1253232407817384</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.04884</v>
+        <v>0.015234</v>
       </c>
       <c r="N17">
-        <v>0.14652</v>
+        <v>0.045702</v>
       </c>
       <c r="O17">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="P17">
-        <v>0.002984279434304292</v>
+        <v>0.0009357018343171013</v>
       </c>
       <c r="Q17">
-        <v>0.05394086588000001</v>
+        <v>0.009250333621999998</v>
       </c>
       <c r="R17">
-        <v>0.4854677929200001</v>
+        <v>0.08325300259799999</v>
       </c>
       <c r="S17">
-        <v>0.0006799004862606897</v>
+        <v>0.0001172651862820364</v>
       </c>
       <c r="T17">
-        <v>0.0006799004862606896</v>
+        <v>0.0001172651862820364</v>
       </c>
     </row>
   </sheetData>
